--- a/olive_oil.xlsx
+++ b/olive_oil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\Università_Magistrale\Data Mining\esercizi\esercizio olio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MCocchi/DIDATTICA/Did20_21/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF993E3C-6DFC-425B-BF22-C091B7B15E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D225778-4345-6C4F-BEAB-9D1509B023B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6247EBB-0A09-2D42-8F06-8C01E7D9073F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14340" xr2:uid="{D6247EBB-0A09-2D42-8F06-8C01E7D9073F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="12">
   <si>
     <t xml:space="preserve">NA </t>
   </si>
@@ -42,35 +42,32 @@
     <t xml:space="preserve">WL </t>
   </si>
   <si>
-    <t>palmitico</t>
+    <t xml:space="preserve">palmitico                                                    </t>
   </si>
   <si>
-    <t>palmitoleico</t>
+    <t xml:space="preserve">palmitoleico                                                 </t>
   </si>
   <si>
-    <t>stearico</t>
+    <t xml:space="preserve">stearico                                                     </t>
   </si>
   <si>
-    <t>oleico</t>
+    <t xml:space="preserve">oleico                                                      </t>
   </si>
   <si>
-    <t>linoleico</t>
+    <t xml:space="preserve">linoleico                                                   </t>
   </si>
   <si>
-    <t>eicosanoico</t>
+    <t xml:space="preserve">eicosanoico                                                  </t>
   </si>
   <si>
-    <t>linolenico</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t xml:space="preserve">linolenico                                                   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,7 +101,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -120,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -418,14 +415,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C441C4-1302-D94C-BB4E-095B6D6357E2}">
   <dimension ref="A1:L383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -448,7 +444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +471,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +498,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +525,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +552,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +579,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +606,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +633,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +659,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +685,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +711,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +737,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +763,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +789,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +815,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,7 +841,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +867,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +893,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +919,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +945,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +971,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +997,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1023,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1049,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1075,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1101,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1127,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1153,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +1205,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1231,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1257,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1283,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1309,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1335,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1361,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1387,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1413,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1439,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1469,7 +1465,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1495,7 +1491,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1517,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1547,7 +1543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1569,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1595,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1621,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -1651,7 +1647,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1673,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -1703,7 +1699,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1751,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1777,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1803,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1833,7 +1829,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1859,7 +1855,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1885,7 +1881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -1911,7 +1907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +1959,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -1989,7 +1985,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -2015,7 +2011,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -2041,7 +2037,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2063,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2089,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2115,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2171,7 +2167,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -2197,7 +2193,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2245,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -2275,7 +2271,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +2323,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -2353,7 +2349,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -2405,7 +2401,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2431,7 +2427,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -2457,7 +2453,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2479,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -2509,7 +2505,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -2535,7 +2531,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -2561,7 +2557,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -2587,7 +2583,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2609,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -2639,7 +2635,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -2665,7 +2661,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -2691,7 +2687,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -2717,7 +2713,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +2739,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -2769,7 +2765,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -2795,7 +2791,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2817,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -2847,7 +2843,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -2873,7 +2869,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
@@ -2899,7 +2895,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -2925,7 +2921,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -2951,7 +2947,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -2977,7 +2973,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -3003,7 +2999,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -3029,7 +3025,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -3055,7 +3051,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3077,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -3107,7 +3103,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -3133,7 +3129,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -3159,7 +3155,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -3185,7 +3181,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -3211,7 +3207,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
@@ -3237,7 +3233,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -3263,7 +3259,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -3289,7 +3285,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -3315,7 +3311,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -3341,7 +3337,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -3367,7 +3363,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -3393,7 +3389,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -3419,7 +3415,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -3445,7 +3441,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -3471,7 +3467,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -3497,7 +3493,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3519,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -3549,7 +3545,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -3575,7 +3571,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -3601,7 +3597,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
@@ -3627,7 +3623,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -3653,7 +3649,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
@@ -3679,7 +3675,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -3705,7 +3701,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -3731,7 +3727,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -3757,7 +3753,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -3783,7 +3779,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
@@ -3809,7 +3805,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
@@ -3835,7 +3831,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -3861,7 +3857,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -3913,7 +3909,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
         <v>1</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -3965,7 +3961,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -3991,7 +3987,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
@@ -4043,7 +4039,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
         <v>1</v>
       </c>
@@ -4069,7 +4065,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -4095,7 +4091,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -4121,7 +4117,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
@@ -4147,7 +4143,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -4173,7 +4169,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -4225,7 +4221,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -4251,7 +4247,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
         <v>1</v>
       </c>
@@ -4277,7 +4273,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
@@ -4303,7 +4299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -4329,7 +4325,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -4355,7 +4351,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
@@ -4381,7 +4377,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -4407,7 +4403,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -4433,7 +4429,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +4455,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -4485,7 +4481,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -4511,7 +4507,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
         <v>1</v>
       </c>
@@ -4537,7 +4533,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
@@ -4563,7 +4559,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -4589,7 +4585,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -4615,7 +4611,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
         <v>1</v>
       </c>
@@ -4641,7 +4637,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
         <v>1</v>
       </c>
@@ -4667,7 +4663,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -4693,7 +4689,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -4719,7 +4715,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
         <v>1</v>
       </c>
@@ -4745,7 +4741,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
         <v>1</v>
       </c>
@@ -4771,7 +4767,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
         <v>1</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -4823,7 +4819,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
         <v>1</v>
       </c>
@@ -4849,7 +4845,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -4875,7 +4871,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
         <v>1</v>
       </c>
@@ -4901,7 +4897,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
         <v>1</v>
       </c>
@@ -4927,7 +4923,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -4953,7 +4949,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -4979,7 +4975,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -5005,7 +5001,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
@@ -5031,7 +5027,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -5057,7 +5053,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
         <v>1</v>
       </c>
@@ -5083,7 +5079,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
@@ -5109,7 +5105,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
         <v>1</v>
       </c>
@@ -5135,7 +5131,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
         <v>1</v>
       </c>
@@ -5161,7 +5157,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -5187,7 +5183,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -5213,7 +5209,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -5239,7 +5235,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
@@ -5265,7 +5261,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -5291,7 +5287,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
         <v>1</v>
       </c>
@@ -5317,7 +5313,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
         <v>1</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>1</v>
       </c>
@@ -5369,7 +5365,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
         <v>1</v>
       </c>
@@ -5395,7 +5391,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -5421,7 +5417,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
@@ -5447,7 +5443,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -5499,7 +5495,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -5525,7 +5521,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
         <v>1</v>
       </c>
@@ -5551,7 +5547,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
         <v>1</v>
       </c>
@@ -5577,7 +5573,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
@@ -5603,7 +5599,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
@@ -5629,7 +5625,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -5655,7 +5651,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
         <v>1</v>
       </c>
@@ -5681,7 +5677,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8">
       <c r="A203" s="1" t="s">
         <v>1</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -5759,7 +5755,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
@@ -5785,7 +5781,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
         <v>1</v>
       </c>
@@ -5811,7 +5807,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8">
       <c r="A208" s="1" t="s">
         <v>1</v>
       </c>
@@ -5837,7 +5833,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209" s="1" t="s">
         <v>1</v>
       </c>
@@ -5863,7 +5859,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -5889,7 +5885,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" s="1" t="s">
         <v>1</v>
       </c>
@@ -5915,7 +5911,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8">
       <c r="A212" s="1" t="s">
         <v>1</v>
       </c>
@@ -5941,7 +5937,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -5993,7 +5989,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -6019,7 +6015,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
@@ -6045,7 +6041,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
@@ -6071,7 +6067,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" s="1" t="s">
         <v>1</v>
       </c>
@@ -6097,7 +6093,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
@@ -6123,7 +6119,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" s="1" t="s">
         <v>1</v>
       </c>
@@ -6175,7 +6171,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222" s="1" t="s">
         <v>1</v>
       </c>
@@ -6201,7 +6197,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
@@ -6227,7 +6223,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8">
       <c r="A224" s="1" t="s">
         <v>1</v>
       </c>
@@ -6253,7 +6249,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8">
       <c r="A225" s="1" t="s">
         <v>1</v>
       </c>
@@ -6279,7 +6275,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8">
       <c r="A226" s="1" t="s">
         <v>1</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -6331,7 +6327,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
@@ -6357,7 +6353,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" s="1" t="s">
         <v>1</v>
       </c>
@@ -6383,7 +6379,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
@@ -6409,7 +6405,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8">
       <c r="A231" s="1" t="s">
         <v>1</v>
       </c>
@@ -6435,7 +6431,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -6461,7 +6457,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8">
       <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
@@ -6487,7 +6483,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" s="1" t="s">
         <v>2</v>
       </c>
@@ -6513,7 +6509,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
@@ -6539,7 +6535,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8">
       <c r="A236" s="1" t="s">
         <v>2</v>
       </c>
@@ -6565,7 +6561,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8">
       <c r="A237" s="1" t="s">
         <v>2</v>
       </c>
@@ -6591,7 +6587,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
@@ -6617,7 +6613,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8">
       <c r="A239" s="1" t="s">
         <v>2</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" s="1" t="s">
         <v>2</v>
       </c>
@@ -6669,7 +6665,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8">
       <c r="A241" s="1" t="s">
         <v>2</v>
       </c>
@@ -6695,7 +6691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -6721,7 +6717,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" s="1" t="s">
         <v>2</v>
       </c>
@@ -6747,7 +6743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" s="1" t="s">
         <v>2</v>
       </c>
@@ -6773,7 +6769,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" s="1" t="s">
         <v>2</v>
       </c>
@@ -6799,7 +6795,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" s="1" t="s">
         <v>2</v>
       </c>
@@ -6825,7 +6821,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
@@ -6851,7 +6847,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" s="1" t="s">
         <v>2</v>
       </c>
@@ -6877,7 +6873,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" s="1" t="s">
         <v>2</v>
       </c>
@@ -6903,7 +6899,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" s="1" t="s">
         <v>2</v>
       </c>
@@ -6929,7 +6925,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -6955,7 +6951,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
@@ -6981,7 +6977,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8">
       <c r="A253" s="1" t="s">
         <v>2</v>
       </c>
@@ -7007,7 +7003,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8">
       <c r="A254" s="1" t="s">
         <v>2</v>
       </c>
@@ -7033,7 +7029,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
         <v>2</v>
       </c>
@@ -7059,7 +7055,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" s="1" t="s">
         <v>2</v>
       </c>
@@ -7085,7 +7081,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8">
       <c r="A257" s="1" t="s">
         <v>2</v>
       </c>
@@ -7111,7 +7107,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8">
       <c r="A258" s="1" t="s">
         <v>2</v>
       </c>
@@ -7137,7 +7133,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
         <v>2</v>
       </c>
@@ -7163,7 +7159,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8">
       <c r="A260" s="1" t="s">
         <v>2</v>
       </c>
@@ -7189,7 +7185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8">
       <c r="A261" s="1" t="s">
         <v>2</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8">
       <c r="A262" s="1" t="s">
         <v>2</v>
       </c>
@@ -7241,7 +7237,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8">
       <c r="A263" s="1" t="s">
         <v>2</v>
       </c>
@@ -7267,7 +7263,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8">
       <c r="A264" s="1" t="s">
         <v>2</v>
       </c>
@@ -7293,7 +7289,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8">
       <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
@@ -7319,7 +7315,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8">
       <c r="A266" s="1" t="s">
         <v>2</v>
       </c>
@@ -7345,7 +7341,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8">
       <c r="A267" s="1" t="s">
         <v>2</v>
       </c>
@@ -7371,7 +7367,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8">
       <c r="A268" s="1" t="s">
         <v>2</v>
       </c>
@@ -7397,7 +7393,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8">
       <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
@@ -7423,7 +7419,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8">
       <c r="A270" s="1" t="s">
         <v>2</v>
       </c>
@@ -7449,7 +7445,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8">
       <c r="A271" s="1" t="s">
         <v>2</v>
       </c>
@@ -7475,7 +7471,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8">
       <c r="A272" s="1" t="s">
         <v>2</v>
       </c>
@@ -7501,7 +7497,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8">
       <c r="A273" s="1" t="s">
         <v>2</v>
       </c>
@@ -7527,7 +7523,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8">
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
@@ -7553,7 +7549,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8">
       <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
@@ -7579,7 +7575,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8">
       <c r="A276" s="1" t="s">
         <v>2</v>
       </c>
@@ -7605,7 +7601,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8">
       <c r="A277" s="1" t="s">
         <v>2</v>
       </c>
@@ -7631,7 +7627,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8">
       <c r="A278" s="1" t="s">
         <v>2</v>
       </c>
@@ -7657,7 +7653,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8">
       <c r="A279" s="1" t="s">
         <v>2</v>
       </c>
@@ -7683,7 +7679,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8">
       <c r="A280" s="1" t="s">
         <v>2</v>
       </c>
@@ -7709,7 +7705,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8">
       <c r="A281" s="1" t="s">
         <v>2</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8">
       <c r="A282" s="1" t="s">
         <v>2</v>
       </c>
@@ -7761,7 +7757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8">
       <c r="A283" s="1" t="s">
         <v>2</v>
       </c>
@@ -7787,7 +7783,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8">
       <c r="A284" s="1" t="s">
         <v>3</v>
       </c>
@@ -7813,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8">
       <c r="A285" s="1" t="s">
         <v>3</v>
       </c>
@@ -7839,7 +7835,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
@@ -7865,7 +7861,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8">
       <c r="A287" s="1" t="s">
         <v>3</v>
       </c>
@@ -7891,7 +7887,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8">
       <c r="A288" s="1" t="s">
         <v>3</v>
       </c>
@@ -7917,7 +7913,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8">
       <c r="A289" s="1" t="s">
         <v>3</v>
       </c>
@@ -7943,7 +7939,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8">
       <c r="A290" s="1" t="s">
         <v>3</v>
       </c>
@@ -7969,7 +7965,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8">
       <c r="A291" s="1" t="s">
         <v>3</v>
       </c>
@@ -7995,7 +7991,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8">
       <c r="A292" s="1" t="s">
         <v>3</v>
       </c>
@@ -8021,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8">
       <c r="A293" s="1" t="s">
         <v>3</v>
       </c>
@@ -8047,7 +8043,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8">
       <c r="A294" s="1" t="s">
         <v>3</v>
       </c>
@@ -8073,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8">
       <c r="A295" s="1" t="s">
         <v>3</v>
       </c>
@@ -8099,7 +8095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8">
       <c r="A296" s="1" t="s">
         <v>3</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8">
       <c r="A297" s="1" t="s">
         <v>3</v>
       </c>
@@ -8151,7 +8147,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8">
       <c r="A298" s="1" t="s">
         <v>3</v>
       </c>
@@ -8177,7 +8173,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8">
       <c r="A299" s="1" t="s">
         <v>3</v>
       </c>
@@ -8203,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8">
       <c r="A300" s="1" t="s">
         <v>3</v>
       </c>
@@ -8229,7 +8225,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8">
       <c r="A301" s="1" t="s">
         <v>3</v>
       </c>
@@ -8255,7 +8251,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8">
       <c r="A302" s="1" t="s">
         <v>3</v>
       </c>
@@ -8281,7 +8277,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8">
       <c r="A303" s="1" t="s">
         <v>3</v>
       </c>
@@ -8307,7 +8303,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8">
       <c r="A304" s="1" t="s">
         <v>3</v>
       </c>
@@ -8333,7 +8329,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8">
       <c r="A305" s="1" t="s">
         <v>3</v>
       </c>
@@ -8359,7 +8355,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8">
       <c r="A306" s="1" t="s">
         <v>3</v>
       </c>
@@ -8385,7 +8381,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8">
       <c r="A307" s="1" t="s">
         <v>3</v>
       </c>
@@ -8411,7 +8407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8">
       <c r="A308" s="1" t="s">
         <v>3</v>
       </c>
@@ -8437,7 +8433,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8">
       <c r="A309" s="1" t="s">
         <v>3</v>
       </c>
@@ -8463,7 +8459,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8">
       <c r="A310" s="1" t="s">
         <v>3</v>
       </c>
@@ -8489,7 +8485,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8">
       <c r="A311" s="1" t="s">
         <v>3</v>
       </c>
@@ -8515,7 +8511,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8">
       <c r="A312" s="1" t="s">
         <v>3</v>
       </c>
@@ -8541,7 +8537,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8">
       <c r="A313" s="1" t="s">
         <v>3</v>
       </c>
@@ -8567,7 +8563,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8">
       <c r="A314" s="1" t="s">
         <v>3</v>
       </c>
@@ -8593,7 +8589,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8">
       <c r="A315" s="1" t="s">
         <v>3</v>
       </c>
@@ -8619,7 +8615,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8">
       <c r="A316" s="1" t="s">
         <v>3</v>
       </c>
@@ -8645,7 +8641,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8">
       <c r="A317" s="1" t="s">
         <v>3</v>
       </c>
@@ -8671,7 +8667,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8">
       <c r="A318" s="1" t="s">
         <v>3</v>
       </c>
@@ -8697,7 +8693,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8">
       <c r="A319" s="1" t="s">
         <v>3</v>
       </c>
@@ -8723,7 +8719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8">
       <c r="A320" s="1" t="s">
         <v>3</v>
       </c>
@@ -8749,7 +8745,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8">
       <c r="A321" s="1" t="s">
         <v>3</v>
       </c>
@@ -8775,7 +8771,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8">
       <c r="A322" s="1" t="s">
         <v>3</v>
       </c>
@@ -8801,7 +8797,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8">
       <c r="A323" s="1" t="s">
         <v>3</v>
       </c>
@@ -8827,7 +8823,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8">
       <c r="A324" s="1" t="s">
         <v>3</v>
       </c>
@@ -8853,7 +8849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8">
       <c r="A325" s="1" t="s">
         <v>3</v>
       </c>
@@ -8879,7 +8875,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8">
       <c r="A326" s="1" t="s">
         <v>3</v>
       </c>
@@ -8905,7 +8901,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8">
       <c r="A327" s="1" t="s">
         <v>3</v>
       </c>
@@ -8931,7 +8927,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8">
       <c r="A328" s="1" t="s">
         <v>3</v>
       </c>
@@ -8957,7 +8953,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8">
       <c r="A329" s="1" t="s">
         <v>3</v>
       </c>
@@ -8983,7 +8979,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8">
       <c r="A330" s="1" t="s">
         <v>3</v>
       </c>
@@ -9009,7 +9005,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8">
       <c r="A331" s="1" t="s">
         <v>3</v>
       </c>
@@ -9035,7 +9031,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8">
       <c r="A332" s="1" t="s">
         <v>3</v>
       </c>
@@ -9061,7 +9057,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8">
       <c r="A333" s="1" t="s">
         <v>3</v>
       </c>
@@ -9087,7 +9083,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8">
       <c r="A334" s="1" t="s">
         <v>4</v>
       </c>
@@ -9113,7 +9109,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8">
       <c r="A335" s="1" t="s">
         <v>4</v>
       </c>
@@ -9139,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8">
       <c r="A336" s="1" t="s">
         <v>4</v>
       </c>
@@ -9165,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8">
       <c r="A337" s="1" t="s">
         <v>4</v>
       </c>
@@ -9191,7 +9187,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8">
       <c r="A338" s="1" t="s">
         <v>4</v>
       </c>
@@ -9217,7 +9213,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8">
       <c r="A339" s="1" t="s">
         <v>4</v>
       </c>
@@ -9243,7 +9239,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8">
       <c r="A340" s="1" t="s">
         <v>4</v>
       </c>
@@ -9269,7 +9265,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8">
       <c r="A341" s="1" t="s">
         <v>4</v>
       </c>
@@ -9295,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8">
       <c r="A342" s="1" t="s">
         <v>4</v>
       </c>
@@ -9321,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8">
       <c r="A343" s="1" t="s">
         <v>4</v>
       </c>
@@ -9347,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8">
       <c r="A344" s="1" t="s">
         <v>4</v>
       </c>
@@ -9373,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8">
       <c r="A345" s="1" t="s">
         <v>4</v>
       </c>
@@ -9399,7 +9395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8">
       <c r="A346" s="1" t="s">
         <v>4</v>
       </c>
@@ -9425,7 +9421,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8">
       <c r="A347" s="1" t="s">
         <v>4</v>
       </c>
@@ -9451,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8">
       <c r="A348" s="1" t="s">
         <v>4</v>
       </c>
@@ -9477,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8">
       <c r="A349" s="1" t="s">
         <v>4</v>
       </c>
@@ -9503,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8">
       <c r="A350" s="1" t="s">
         <v>4</v>
       </c>
@@ -9529,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8">
       <c r="A351" s="1" t="s">
         <v>4</v>
       </c>
@@ -9555,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8">
       <c r="A352" s="1" t="s">
         <v>4</v>
       </c>
@@ -9581,7 +9577,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8">
       <c r="A353" s="1" t="s">
         <v>4</v>
       </c>
@@ -9607,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8">
       <c r="A354" s="1" t="s">
         <v>4</v>
       </c>
@@ -9633,7 +9629,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8">
       <c r="A355" s="1" t="s">
         <v>4</v>
       </c>
@@ -9659,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8">
       <c r="A356" s="1" t="s">
         <v>4</v>
       </c>
@@ -9685,7 +9681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8">
       <c r="A357" s="1" t="s">
         <v>4</v>
       </c>
@@ -9711,7 +9707,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8">
       <c r="A358" s="1" t="s">
         <v>4</v>
       </c>
@@ -9737,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8">
       <c r="A359" s="1" t="s">
         <v>4</v>
       </c>
@@ -9763,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8">
       <c r="A360" s="1" t="s">
         <v>4</v>
       </c>
@@ -9789,7 +9785,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8">
       <c r="A361" s="1" t="s">
         <v>4</v>
       </c>
@@ -9815,7 +9811,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8">
       <c r="A362" s="1" t="s">
         <v>4</v>
       </c>
@@ -9841,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8">
       <c r="A363" s="1" t="s">
         <v>4</v>
       </c>
@@ -9867,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8">
       <c r="A364" s="1" t="s">
         <v>4</v>
       </c>
@@ -9893,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8">
       <c r="A365" s="1" t="s">
         <v>4</v>
       </c>
@@ -9919,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8">
       <c r="A366" s="1" t="s">
         <v>4</v>
       </c>
@@ -9945,7 +9941,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8">
       <c r="A367" s="1" t="s">
         <v>4</v>
       </c>
@@ -9971,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8">
       <c r="A368" s="1" t="s">
         <v>4</v>
       </c>
@@ -9997,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8">
       <c r="A369" s="1" t="s">
         <v>4</v>
       </c>
@@ -10023,7 +10019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8">
       <c r="A370" s="1" t="s">
         <v>4</v>
       </c>
@@ -10049,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8">
       <c r="A371" s="1" t="s">
         <v>4</v>
       </c>
@@ -10075,7 +10071,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8">
       <c r="A372" s="1" t="s">
         <v>4</v>
       </c>
@@ -10101,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8">
       <c r="A373" s="1" t="s">
         <v>4</v>
       </c>
@@ -10127,7 +10123,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8">
       <c r="A374" s="1" t="s">
         <v>4</v>
       </c>
@@ -10153,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8">
       <c r="A375" s="1" t="s">
         <v>4</v>
       </c>
@@ -10179,7 +10175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8">
       <c r="A376" s="1" t="s">
         <v>4</v>
       </c>
@@ -10205,7 +10201,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8">
       <c r="A377" s="1" t="s">
         <v>4</v>
       </c>
@@ -10231,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8">
       <c r="A378" s="1" t="s">
         <v>4</v>
       </c>
@@ -10257,7 +10253,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8">
       <c r="A379" s="1" t="s">
         <v>4</v>
       </c>
@@ -10283,7 +10279,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8">
       <c r="A380" s="1" t="s">
         <v>4</v>
       </c>
@@ -10309,7 +10305,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8">
       <c r="A381" s="1" t="s">
         <v>4</v>
       </c>
@@ -10335,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8">
       <c r="A382" s="1" t="s">
         <v>4</v>
       </c>
@@ -10361,7 +10357,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8">
       <c r="A383" s="1" t="s">
         <v>4</v>
       </c>
@@ -10389,6 +10385,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>